--- a/data/trans_orig/P77_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P77_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA57910B-0A13-45B8-AE56-0E1197A3EF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC82CBA-D585-404C-93C8-EEFE29F77E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94887A58-81BE-45A3-9928-44280D5DCAB0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9291ADE1-2678-4572-9C88-D747CB9A72E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="171">
   <si>
     <t>Población según cual es el sustentador principal del hogar en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>16,61%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>43,54%</t>
   </si>
   <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
   </si>
   <si>
     <t>ADULTO QUE CONTESTA POR EL NIÑO/A</t>
@@ -113,427 +113,439 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,16%</t>
+    <t>2,22%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>ADULTO SELECCIONADO y realiza encuesta</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>ADULTO SELECCIONADO y realiza encuesta</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>2,32%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>53,24%</t>
   </si>
   <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -948,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A614DB0E-AEB0-4305-AF5E-2EA329BD27F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968CC497-F084-4BFE-958D-4F4C52D0EBDB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1553,10 +1565,10 @@
         <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1565,13 +1577,13 @@
         <v>13049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1586,13 +1598,13 @@
         <v>871751</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>845</v>
@@ -1601,13 +1613,13 @@
         <v>558615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>1704</v>
@@ -1616,13 +1628,13 @@
         <v>1430366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,7 +1690,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1690,13 +1702,13 @@
         <v>125616</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>434</v>
@@ -1705,13 +1717,13 @@
         <v>442412</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>502</v>
@@ -1720,13 +1732,13 @@
         <v>568027</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,7 +1759,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1762,7 +1774,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1771,13 +1783,13 @@
         <v>2768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,13 +1804,13 @@
         <v>600388</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>613</v>
@@ -1807,13 +1819,13 @@
         <v>431959</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>1220</v>
@@ -1822,13 +1834,13 @@
         <v>1032347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,7 +1896,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1896,13 +1908,13 @@
         <v>150381</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>623</v>
@@ -1911,13 +1923,13 @@
         <v>494630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>723</v>
@@ -1926,13 +1938,13 @@
         <v>645011</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,13 +1959,13 @@
         <v>320</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1962,13 +1974,13 @@
         <v>3002</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1977,13 +1989,13 @@
         <v>3322</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +2010,13 @@
         <v>814702</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>936</v>
@@ -2013,13 +2025,13 @@
         <v>652800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>1840</v>
@@ -2028,13 +2040,13 @@
         <v>1467501</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2114,13 @@
         <v>522659</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>2256</v>
@@ -2117,28 +2129,28 @@
         <v>1749832</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>2586</v>
       </c>
       <c r="N24" s="7">
-        <v>2272491</v>
+        <v>2272490</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2165,13 @@
         <v>9611</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2168,13 +2180,13 @@
         <v>43709</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -2183,13 +2195,13 @@
         <v>53320</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2216,13 @@
         <v>2852958</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>3090</v>
@@ -2219,13 +2231,13 @@
         <v>2042040</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>6127</v>
@@ -2234,13 +2246,13 @@
         <v>4894998</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,7 +2294,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -2296,7 +2308,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P77_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P77_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC82CBA-D585-404C-93C8-EEFE29F77E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA78C51A-22F7-4F18-9404-297E9401AF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9291ADE1-2678-4572-9C88-D747CB9A72E3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C35E31D4-3A62-4E11-A04A-78D717353ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>OTRA PERSONA</t>
@@ -155,7 +155,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>12,03%</t>
@@ -236,7 +236,7 @@
     <t>72,06%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>15,74%</t>
@@ -320,7 +320,7 @@
     <t>71,19%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>17,24%</t>
@@ -960,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968CC497-F084-4BFE-958D-4F4C52D0EBDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7305AFED-201E-42F3-9935-F8133D8F4696}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
